--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D81E1F-AE26-44EC-805E-BA4679210029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF3BF03-9599-46CB-97D5-08E61E2FF4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1140" windowWidth="24225" windowHeight="13950" activeTab="1" xr2:uid="{38E63143-6EAE-4C0E-979E-BA7C45B78238}"/>
+    <workbookView xWindow="-4125" yWindow="2970" windowWidth="25005" windowHeight="13305" activeTab="2" xr2:uid="{38E63143-6EAE-4C0E-979E-BA7C45B78238}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー操作画面概要" sheetId="2" r:id="rId1"/>
     <sheet name="プレイヤー操作画面仕様" sheetId="1" r:id="rId2"/>
+    <sheet name="敵動作仕様" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,17 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>▼細かい仕様</t>
-    <rPh sb="1" eb="2">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>概要　：</t>
     <rPh sb="0" eb="2">
@@ -246,12 +237,315 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>▼画面仕様</t>
+    <t>施設追加ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用したい施設を選択した後これでいいかのOK画面も表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強攻撃ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
     <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは別の画面を表示することなく、タップすることで強攻撃を発動するようにする</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>キョウコウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設強化について</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設画像、強化に必要な素材の数は変動しないようにする</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持っている素材の数はタップ時点での持っている数を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持っている数が必要数を超えていたらLevelUpボタンの色が濃ゆくなり、タップ可能になる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑よって持っている数が少ない場合はLevelUpボタンは色を薄くする</t>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲージはどのくらい貯まっているかを％表記する</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲージが貯まったら使用可能がわかるように色を濃ゆくする</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵は遠距離タイプと、近距離タイプがいる</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・全体の８割は固定わきとする</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・残りの２割はランダム配置わきとする</t>
+    <rPh sb="1" eb="2">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵の出現する位置は３レーンとする</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
     <rPh sb="3" eb="5">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼仕様</t>
+    <rPh sb="1" eb="3">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼詳細</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現位置</t>
+    <rPh sb="0" eb="4">
+      <t>シュツゲンイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の出現位置は３つ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シュツゲンイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現自体は画面外で行う</t>
+    <rPh sb="0" eb="4">
+      <t>シュツゲンジタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガメンガイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作について</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の速度で左に移動していく</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -339,6 +633,979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>288471</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>208189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30893222-2186-4BC0-8088-BFEEB7476093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="2721429"/>
+          <a:ext cx="7772400" cy="4371974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62BA0DB4-623C-46F3-B344-7E2597D936D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="3314700"/>
+          <a:ext cx="723900" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C1FDCA-0C3C-4505-B7D6-15E3A819B81A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2933701" y="3524250"/>
+          <a:ext cx="5981699" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>524934</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060533D3-D554-4A63-AC6F-6984DF2B23F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3619500"/>
+          <a:ext cx="3268134" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60962D9-692D-4E81-B9E0-B0F3EC2756C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="6267450"/>
+          <a:ext cx="704850" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F224B3-E879-4DFC-8D2A-E1F975D726E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="4438650"/>
+          <a:ext cx="876300" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA1D9D5-BD9C-43F7-9FB1-52330905095B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2952750" y="4886325"/>
+          <a:ext cx="5981700" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>237530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3259F7BB-0318-4714-A127-526603AF56C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="6238876"/>
+          <a:ext cx="2962275" cy="1666279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B6C080-946F-4A60-9114-25F967DC8AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1485900" y="6953251"/>
+          <a:ext cx="7429500" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012894E0-5EE5-4FA1-ACD7-3351E455D1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2390775"/>
+          <a:ext cx="7772400" cy="4371974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C98A4FA-0615-46B1-9272-FBD94CFB6703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="2819400"/>
+          <a:ext cx="828675" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C9309D-BFFE-4958-B09C-77E3F97B92EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686676" y="4181474"/>
+          <a:ext cx="762000" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED83C64-633E-4EC2-AA80-7D2AB3830706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705727" y="5486400"/>
+          <a:ext cx="733423" cy="752473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC38AF6-A06C-401C-A425-A5907A28AA0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8229600" y="3209925"/>
+          <a:ext cx="1362075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67D1881-AD76-47D2-A121-E03A55AE143E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8429626" y="3209925"/>
+          <a:ext cx="1819274" cy="1423987"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5FEAE6-8E34-467D-8275-9D8CC01C94B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="4581525"/>
+          <a:ext cx="0" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA219F5-11C7-40A5-8514-2059EB77B049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8439150" y="5829300"/>
+          <a:ext cx="904875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,7 +1908,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C15:C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -655,7 +1922,7 @@
     <row r="2" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -671,25 +1938,25 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -705,32 +1972,32 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -741,47 +2008,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C18D7-6262-43B5-A7CE-3661B3FD67AB}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -792,10 +2059,181 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="N38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.4">
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4224BB99-6D6A-4AB0-8691-E9E5042CB159}">
+  <dimension ref="B2:V17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="16" max="16" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="Q15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF3BF03-9599-46CB-97D5-08E61E2FF4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8543042-EC77-4E7D-9CE4-1FF095EC3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4125" yWindow="2970" windowWidth="25005" windowHeight="13305" activeTab="2" xr2:uid="{38E63143-6EAE-4C0E-979E-BA7C45B78238}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24525" windowHeight="11295" activeTab="1" xr2:uid="{38E63143-6EAE-4C0E-979E-BA7C45B78238}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー操作画面概要" sheetId="2" r:id="rId1"/>
     <sheet name="プレイヤー操作画面仕様" sheetId="1" r:id="rId2"/>
     <sheet name="敵動作仕様" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>概要　：</t>
     <rPh sb="0" eb="2">
@@ -546,6 +547,132 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近距離</t>
+    <rPh sb="0" eb="3">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※キャラによって速度は変えるようにする</t>
+    <rPh sb="9" eb="11">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※3段階か４段階にはしておく</t>
+    <rPh sb="3" eb="5">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　柵のところで止まり、攻撃をする</t>
+    <rPh sb="1" eb="2">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　攻撃速度はキャラにより異なる</t>
+    <rPh sb="1" eb="5">
+      <t>コウゲキソクド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　※移動速度同様に3段階か4段階にする</t>
+    <rPh sb="3" eb="7">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　攻撃力はキャラに設定し、ステージにより倍率をかける</t>
+    <rPh sb="1" eb="4">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　※上同様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　キャラによりに止まる位置を変える</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　※2か3段階にする</t>
+    <rPh sb="6" eb="8">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※以下近距離同様</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キンキョリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2010,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C18D7-6262-43B5-A7CE-3661B3FD67AB}">
   <dimension ref="B2:AE41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2145,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4224BB99-6D6A-4AB0-8691-E9E5042CB159}">
-  <dimension ref="B2:V17"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2231,9 +2358,83 @@
         <v>38</v>
       </c>
     </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q29" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C140710A-BB36-405F-BD1A-2397383292A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8543042-EC77-4E7D-9CE4-1FF095EC3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72817418-30B1-4C5F-9585-5DED92B1008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24525" windowHeight="11295" activeTab="1" xr2:uid="{38E63143-6EAE-4C0E-979E-BA7C45B78238}"/>
+    <workbookView xWindow="5220" yWindow="720" windowWidth="16920" windowHeight="11295" activeTab="1" xr2:uid="{38E63143-6EAE-4C0E-979E-BA7C45B78238}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー操作画面概要" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>概要　：</t>
     <rPh sb="0" eb="2">
@@ -673,6 +673,191 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設について</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　2発</t>
+  </si>
+  <si>
+    <t>　リロード遅</t>
+  </si>
+  <si>
+    <t>・ホーミングトーピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ローリングシールド</t>
+  </si>
+  <si>
+    <t>　まっすぐ進む</t>
+  </si>
+  <si>
+    <t>　貫通</t>
+  </si>
+  <si>
+    <t>　高威力</t>
+  </si>
+  <si>
+    <t>　低威力</t>
+  </si>
+  <si>
+    <t>　リロード速</t>
+  </si>
+  <si>
+    <t>・ストームトルネード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイアーウェーブ</t>
+  </si>
+  <si>
+    <t>　画面半分まで</t>
+  </si>
+  <si>
+    <t>　スリップダメージ</t>
+  </si>
+  <si>
+    <t>　リロード中</t>
+  </si>
+  <si>
+    <t>・エレクトリックスパーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　3連射</t>
+    <rPh sb="2" eb="4">
+      <t>レンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　当たった敵の近くに別の敵がいた場合それにも当たる</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　低威力(初撃のみ中威力)</t>
+    <rPh sb="1" eb="4">
+      <t>テイイリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チュウイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　リロード速</t>
+    <rPh sb="5" eb="6">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブーメランカッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　画面半分までいって戻ってくる</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　貫通</t>
+    <rPh sb="1" eb="3">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　低威力</t>
+    <rPh sb="1" eb="4">
+      <t>テイイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　リロード中</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　速度遅い</t>
+    <rPh sb="1" eb="3">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　高威力</t>
+    <rPh sb="1" eb="2">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　爆発し、範囲内にいる敵全員にダメージを与える</t>
+    <rPh sb="1" eb="3">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -681,7 +866,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,8 +882,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +918,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -732,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +950,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,8 +1389,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>237530</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2135,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C18D7-6262-43B5-A7CE-3661B3FD67AB}">
-  <dimension ref="B2:AE41"/>
+  <dimension ref="A2:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2222,44 +2435,221 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.4">
       <c r="O33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.4">
       <c r="O34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.4">
       <c r="O35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.4">
       <c r="O36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.4">
       <c r="N38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.4">
       <c r="O39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.4">
       <c r="O40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.4">
       <c r="O41" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
